--- a/cond.xlsx
+++ b/cond.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpzdb\pavloviaDemos\ANT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteBook\Desktop\mehrdad projects\ANT-NL\2\attention_network_task-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490BEBA-8CFC-47F1-B109-BF839933CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="465" windowWidth="20835" windowHeight="17505"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>cue</t>
   </si>
@@ -65,22 +66,13 @@
     <t>stim/incongRight.png</t>
   </si>
   <si>
-    <t>stim/neutralLeft.png</t>
-  </si>
-  <si>
-    <t>stim/neutralRight.png</t>
-  </si>
-  <si>
     <t>stim/centre.png</t>
-  </si>
-  <si>
-    <t>stim/blank.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -425,20 +417,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -466,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -480,9 +472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -494,23 +486,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -522,9 +514,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -536,37 +528,37 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -578,549 +570,213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
         <v>180</v>
       </c>
     </row>
